--- a/data/trans_dic/P7_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P7_R-Estudios-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>29,12; 35,17</t>
+          <t>29,49; 35,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,91; 38,21</t>
+          <t>31,55; 37,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,18; 36,65</t>
+          <t>29,76; 36,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>35,96; 44,06</t>
+          <t>36,13; 43,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>46,78; 52,17</t>
+          <t>46,92; 52,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>44,07; 49,51</t>
+          <t>44,3; 49,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>42,45; 48,88</t>
+          <t>42,29; 48,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>49,22; 55,09</t>
+          <t>49,46; 55,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>39,95; 43,67</t>
+          <t>39,84; 44,19</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>39,67; 43,86</t>
+          <t>39,75; 43,95</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>37,33; 42,28</t>
+          <t>37,76; 42,58</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>45,14; 50,07</t>
+          <t>45,09; 49,8</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,76; 9,25</t>
+          <t>6,66; 9,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,81; 11,59</t>
+          <t>8,63; 11,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,73; 13,73</t>
+          <t>10,81; 13,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,69; 16,04</t>
+          <t>12,67; 16,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,72; 17,51</t>
+          <t>13,87; 17,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,26; 18,17</t>
+          <t>14,26; 18,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,17; 18,81</t>
+          <t>15,08; 18,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,05; 18,67</t>
+          <t>14,32; 18,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,57; 12,83</t>
+          <t>10,64; 12,82</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,91; 14,22</t>
+          <t>11,81; 14,18</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,32; 15,71</t>
+          <t>13,4; 15,67</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,24; 16,89</t>
+          <t>14,13; 16,84</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,88; 11,13</t>
+          <t>6,28; 11,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 9,07</t>
+          <t>4,01; 9,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 8,23</t>
+          <t>3,92; 8,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,06; 13,2</t>
+          <t>8,27; 13,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,34; 17,74</t>
+          <t>11,28; 17,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,1; 10,68</t>
+          <t>5,25; 10,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,58; 12,8</t>
+          <t>7,49; 13,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,58; 12,45</t>
+          <t>8,57; 12,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,16; 13,08</t>
+          <t>9,28; 13,4</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,18; 8,94</t>
+          <t>5,22; 9,26</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,35; 9,81</t>
+          <t>6,31; 9,75</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,13; 12,24</t>
+          <t>9,03; 12,02</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,38; 16,93</t>
+          <t>14,49; 17,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,29; 18,02</t>
+          <t>15,41; 18,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,58; 17,08</t>
+          <t>14,56; 17,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,38; 19,12</t>
+          <t>16,37; 19,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,11; 30,3</t>
+          <t>27,14; 30,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,19; 28,3</t>
+          <t>25,15; 28,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,39; 25,37</t>
+          <t>22,46; 25,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,06; 24,86</t>
+          <t>21,2; 24,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,18; 23,25</t>
+          <t>21,36; 23,4</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,75; 22,83</t>
+          <t>20,66; 22,88</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,01; 20,96</t>
+          <t>18,9; 20,82</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>19,45; 21,78</t>
+          <t>19,43; 21,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P7_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P7_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>29,49; 35,12</t>
+          <t>29,27; 35,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,55; 37,99</t>
+          <t>31,78; 38,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,76; 36,45</t>
+          <t>29,62; 36,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>46,92; 52,47</t>
+          <t>46,85; 52,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>44,3; 49,67</t>
+          <t>44,16; 49,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>42,29; 48,95</t>
+          <t>42,15; 48,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>39,84; 44,19</t>
+          <t>40,06; 44,13</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>39,75; 43,95</t>
+          <t>39,6; 43,92</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>37,76; 42,58</t>
+          <t>37,59; 42,6</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,66; 9,43</t>
+          <t>6,78; 9,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,63; 11,52</t>
+          <t>8,72; 11,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,81; 13,85</t>
+          <t>10,67; 13,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,87; 17,6</t>
+          <t>13,83; 17,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,26; 18,08</t>
+          <t>14,41; 18,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,08; 18,87</t>
+          <t>15,36; 18,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,64; 12,82</t>
+          <t>10,55; 12,79</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,81; 14,18</t>
+          <t>11,88; 14,14</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,4; 15,67</t>
+          <t>13,41; 15,71</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,28; 11,34</t>
+          <t>6,18; 11,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,01; 9,3</t>
+          <t>3,74; 8,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,92; 8,47</t>
+          <t>4,03; 8,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,28; 17,52</t>
+          <t>11,24; 17,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,25; 10,41</t>
+          <t>5,33; 10,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,49; 13,18</t>
+          <t>7,58; 13,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,28; 13,4</t>
+          <t>9,24; 13,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,22; 9,26</t>
+          <t>5,26; 8,92</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,31; 9,75</t>
+          <t>6,31; 10,0</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,49; 17,01</t>
+          <t>14,63; 17,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,41; 18,0</t>
+          <t>15,34; 18,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,56; 17,16</t>
+          <t>14,63; 17,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,14; 30,26</t>
+          <t>27,13; 30,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,15; 28,21</t>
+          <t>25,14; 28,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,46; 25,41</t>
+          <t>22,36; 25,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,36; 23,4</t>
+          <t>21,33; 23,35</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,66; 22,88</t>
+          <t>20,73; 22,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,9; 20,82</t>
+          <t>19,0; 21,05</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P7_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P7_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>29,27; 35,16</t>
+          <t>29,12; 35,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,78; 38,3</t>
+          <t>31,91; 38,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,62; 36,7</t>
+          <t>30,18; 36,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>36,13; 43,83</t>
+          <t>35,96; 44,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>46,85; 52,18</t>
+          <t>46,78; 52,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>44,16; 49,64</t>
+          <t>44,07; 49,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>42,15; 48,84</t>
+          <t>42,45; 48,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>49,46; 55,21</t>
+          <t>49,22; 55,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>40,06; 44,13</t>
+          <t>39,95; 43,67</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>39,6; 43,92</t>
+          <t>39,67; 43,86</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>37,59; 42,6</t>
+          <t>37,33; 42,28</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>45,09; 49,8</t>
+          <t>45,14; 50,07</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,78; 9,25</t>
+          <t>6,76; 9,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,72; 11,55</t>
+          <t>8,81; 11,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,67; 13,6</t>
+          <t>10,73; 13,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,67; 16,18</t>
+          <t>12,69; 16,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,83; 17,36</t>
+          <t>13,72; 17,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,41; 18,11</t>
+          <t>14,26; 18,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,36; 18,86</t>
+          <t>15,17; 18,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,32; 18,66</t>
+          <t>14,05; 18,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,55; 12,79</t>
+          <t>10,57; 12,83</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,88; 14,14</t>
+          <t>11,91; 14,22</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,41; 15,71</t>
+          <t>13,32; 15,71</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,13; 16,84</t>
+          <t>14,24; 16,89</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,18; 11,35</t>
+          <t>5,88; 11,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 8,98</t>
+          <t>3,74; 9,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,03; 8,08</t>
+          <t>3,91; 8,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,27; 13,18</t>
+          <t>8,06; 13,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,24; 17,77</t>
+          <t>11,34; 17,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,33; 10,72</t>
+          <t>5,1; 10,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,58; 13,03</t>
+          <t>7,58; 12,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,57; 12,37</t>
+          <t>8,58; 12,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,24; 13,28</t>
+          <t>9,16; 13,08</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,26; 8,92</t>
+          <t>5,18; 8,94</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,31; 10,0</t>
+          <t>6,35; 9,81</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,03; 12,02</t>
+          <t>9,13; 12,24</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,63; 17,09</t>
+          <t>14,38; 16,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,34; 18,1</t>
+          <t>15,29; 18,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,63; 17,1</t>
+          <t>14,58; 17,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,37; 19,15</t>
+          <t>16,38; 19,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,13; 30,22</t>
+          <t>27,11; 30,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,14; 28,22</t>
+          <t>25,19; 28,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,36; 25,4</t>
+          <t>22,39; 25,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,2; 24,83</t>
+          <t>21,06; 24,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,33; 23,35</t>
+          <t>21,18; 23,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,73; 22,72</t>
+          <t>20,75; 22,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,0; 21,05</t>
+          <t>19,01; 20,96</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>19,43; 21,77</t>
+          <t>19,45; 21,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P7_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P7_R-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>40,02%</t>
+          <t>39,68%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>52,26%</t>
+          <t>52,17%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>47,45%</t>
+          <t>47,11%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>35,96; 44,06</t>
+          <t>35,63; 43,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>49,22; 55,09</t>
+          <t>49,25; 54,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>45,14; 50,07</t>
+          <t>44,82; 49,76</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>12,95%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16,97%</t>
+          <t>15,86%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>14,39%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,69; 16,04</t>
+          <t>9,48; 15,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,05; 18,67</t>
+          <t>10,48; 18,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,24; 16,89</t>
+          <t>11,57; 16,19</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,57%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>10,53%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,06; 13,2</t>
+          <t>8,2; 13,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,58; 12,45</t>
+          <t>8,64; 12,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,13; 12,24</t>
+          <t>9,14; 12,21</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>16,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23,51%</t>
+          <t>22,39%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>19,53%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,38; 19,12</t>
+          <t>13,04; 18,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,06; 24,86</t>
+          <t>17,83; 24,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>19,45; 21,78</t>
+          <t>16,87; 21,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P7_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P7_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>29,12; 35,17</t>
+          <t>29,2; 35,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>31,91; 38,21</t>
+          <t>32,0; 38,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,18; 36,65</t>
+          <t>29,81; 36,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>35,63; 43,73</t>
+          <t>35,77; 43,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>46,78; 52,17</t>
+          <t>46,75; 52,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>44,07; 49,51</t>
+          <t>44,31; 49,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>42,45; 48,88</t>
+          <t>41,92; 48,78</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>49,25; 54,86</t>
+          <t>49,6; 55,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>39,95; 43,67</t>
+          <t>39,92; 44,05</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>39,67; 43,86</t>
+          <t>39,66; 43,88</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>37,33; 42,28</t>
+          <t>37,92; 42,55</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>44,82; 49,76</t>
+          <t>44,7; 49,48</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,76; 9,25</t>
+          <t>6,7; 9,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,81; 11,59</t>
+          <t>8,78; 11,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,73; 13,73</t>
+          <t>10,72; 13,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,48; 15,13</t>
+          <t>9,17; 15,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,72; 17,51</t>
+          <t>14,01; 17,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,26; 18,17</t>
+          <t>14,37; 18,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,17; 18,81</t>
+          <t>15,45; 18,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,48; 18,24</t>
+          <t>11,58; 18,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,57; 12,83</t>
+          <t>10,61; 12,83</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,91; 14,22</t>
+          <t>11,88; 14,14</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,32; 15,71</t>
+          <t>13,41; 15,64</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,57; 16,19</t>
+          <t>11,36; 16,21</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,88; 11,13</t>
+          <t>6,26; 11,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 9,07</t>
+          <t>3,88; 9,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,91; 8,23</t>
+          <t>3,91; 8,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,2; 13,29</t>
+          <t>8,34; 13,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,34; 17,74</t>
+          <t>11,02; 17,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,1; 10,68</t>
+          <t>5,11; 10,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,58; 12,8</t>
+          <t>7,57; 12,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,64; 12,42</t>
+          <t>8,53; 12,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,16; 13,08</t>
+          <t>9,26; 13,44</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,18; 8,94</t>
+          <t>5,22; 9,03</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,35; 9,81</t>
+          <t>6,28; 9,88</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,14; 12,21</t>
+          <t>9,06; 12,29</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,38; 16,93</t>
+          <t>14,44; 16,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,29; 18,02</t>
+          <t>15,38; 17,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,58; 17,08</t>
+          <t>14,61; 17,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,04; 18,2</t>
+          <t>12,9; 18,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,11; 30,3</t>
+          <t>26,94; 30,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,19; 28,3</t>
+          <t>25,28; 28,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,39; 25,37</t>
+          <t>22,43; 25,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,83; 24,31</t>
+          <t>18,02; 24,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,18; 23,25</t>
+          <t>21,21; 23,28</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,75; 22,83</t>
+          <t>20,74; 22,77</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,01; 20,96</t>
+          <t>18,97; 20,91</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,87; 21,01</t>
+          <t>17,08; 21,08</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con salud general regular o mala</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>787</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>968</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>646</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1079</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>331946</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>340985</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>249286</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>204325</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>652179</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>626667</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>451001</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>394151</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>984124</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>967652</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>700287</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>598476</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>301264; 363340</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>311889; 372497</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>224897; 274469</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>184195; 224361</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>614768; 687498</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>592295; 666753</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>415228; 483150</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>374745; 416398</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>936911; 1033771</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>916655; 1014262</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>661703; 742428</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>567893; 628604</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>534</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>967</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>134345</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>197900</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>251439</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>296555</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>247459</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>284225</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>338323</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>354973</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>381804</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>482125</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>589763</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>651529</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>113316; 160245</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>172034; 226832</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>222406; 282494</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>210051; 346316</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>222456; 279042</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>252257; 318524</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>307193; 375917</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>259036; 411920</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>347948; 420837</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>441102; 524975</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>544747; 635326</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>514458; 733953</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>46117</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>29397</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>31279</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>68824</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>68075</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>35286</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>54760</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>68819</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>114192</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>64682</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>86040</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>137643</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>34510; 62194</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>18597; 44304</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>21265; 44595</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>53920; 86456</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>52490; 84959</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>23384; 47921</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>41491; 69909</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>56334; 81292</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>95181; 138152</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>48864; 84578</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>68609; 107914</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>118476; 160622</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>741</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1534</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1448</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1392</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1257</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2254</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>512408</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>568282</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>532005</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>569705</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>967712</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>946178</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>844085</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>817943</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1480120</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1514460</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1376090</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1387648</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>473016; 553293</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>524893; 612932</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>492772; 579334</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>445307; 635052</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>910198; 1020177</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>897178; 1000745</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>791237; 897628</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>658564; 886429</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1411771; 1549058</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1444109; 1585120</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1308717; 1442626</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1213474; 1497816</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>